--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4491" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T06:10:15+00:00</t>
+    <t>2022-11-19T22:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1036,6 +1036,9 @@
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-measurement-vs</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -1738,7 +1741,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.6328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -7730,13 +7733,11 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7754,7 +7755,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7775,12 +7776,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7806,14 +7807,14 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7823,7 +7824,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7862,7 +7863,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7871,7 +7872,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7883,12 +7884,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7914,16 +7915,16 @@
         <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7972,7 +7973,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7993,12 +7994,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8024,10 +8025,10 @@
         <v>301</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8078,7 +8079,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8099,12 +8100,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8210,7 +8211,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8318,7 +8319,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8428,7 +8429,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8536,7 +8537,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8598,7 +8599,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8616,7 +8617,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8637,12 +8638,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8668,14 +8669,14 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8724,7 +8725,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8733,7 +8734,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8745,12 +8746,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8776,16 +8777,16 @@
         <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8834,7 +8835,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8855,12 +8856,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8886,10 +8887,10 @@
         <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8940,7 +8941,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8966,7 +8967,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8992,10 +8993,10 @@
         <v>290</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9044,7 +9045,7 @@
         <v>220</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9059,7 +9060,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
@@ -9070,10 +9071,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>73</v>
@@ -9098,7 +9099,7 @@
         <v>296</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>284</v>
@@ -9152,7 +9153,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9167,7 +9168,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9178,7 +9179,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9284,7 +9285,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9392,7 +9393,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9498,7 +9499,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9604,7 +9605,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9712,7 +9713,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9822,7 +9823,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9930,7 +9931,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9988,13 +9989,11 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10012,7 +10011,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10033,12 +10032,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10064,14 +10063,14 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10081,7 +10080,7 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>73</v>
@@ -10120,7 +10119,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10129,7 +10128,7 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10141,12 +10140,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10172,16 +10171,16 @@
         <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10230,7 +10229,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10251,12 +10250,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10282,10 +10281,10 @@
         <v>301</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10336,7 +10335,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10357,12 +10356,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10468,7 +10467,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10576,7 +10575,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10686,7 +10685,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10794,7 +10793,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10852,13 +10851,11 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10876,7 +10873,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10897,12 +10894,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10928,14 +10925,14 @@
         <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10945,7 +10942,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -10984,7 +10981,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -10993,7 +10990,7 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11005,12 +11002,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11036,16 +11033,16 @@
         <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11094,7 +11091,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11115,12 +11112,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11146,10 +11143,10 @@
         <v>181</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11200,7 +11197,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11226,7 +11223,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11252,10 +11249,10 @@
         <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11306,7 +11303,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11321,7 +11318,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>73</v>
@@ -11332,7 +11329,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11358,10 +11355,10 @@
         <v>156</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11391,10 +11388,10 @@
         <v>160</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>73</v>
@@ -11412,7 +11409,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11427,7 +11424,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>73</v>
@@ -11438,7 +11435,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11464,10 +11461,10 @@
         <v>176</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11518,7 +11515,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11533,7 +11530,7 @@
         <v>179</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11544,7 +11541,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11650,7 +11647,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11758,7 +11755,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11868,7 +11865,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11897,7 +11894,7 @@
         <v>203</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11948,7 +11945,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -11963,7 +11960,7 @@
         <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
@@ -11974,7 +11971,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12080,7 +12077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12188,7 +12185,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12294,7 +12291,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12400,7 +12397,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12508,7 +12505,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12618,7 +12615,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12724,7 +12721,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12832,7 +12829,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12942,7 +12939,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13050,7 +13047,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13158,7 +13155,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13266,7 +13263,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13376,7 +13373,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13486,7 +13483,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13592,7 +13589,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13618,10 +13615,10 @@
         <v>290</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13670,7 +13667,7 @@
         <v>220</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>81</v>
@@ -13685,7 +13682,7 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>73</v>
@@ -13696,10 +13693,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>73</v>
@@ -13724,10 +13721,10 @@
         <v>296</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13778,7 +13775,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>81</v>
@@ -13793,7 +13790,7 @@
         <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
@@ -13804,7 +13801,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13910,7 +13907,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14018,7 +14015,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14124,7 +14121,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14230,7 +14227,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14338,7 +14335,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14448,7 +14445,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14556,7 +14553,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14614,13 +14611,11 @@
         <v>73</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X120" s="2"/>
       <c r="Y120" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>73</v>
@@ -14638,7 +14633,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14659,12 +14654,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14690,14 +14685,14 @@
         <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
@@ -14707,7 +14702,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -14746,7 +14741,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14755,7 +14750,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14767,12 +14762,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14798,16 +14793,16 @@
         <v>101</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14856,7 +14851,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14877,12 +14872,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14908,10 +14903,10 @@
         <v>301</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -14962,7 +14957,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14983,12 +14978,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15094,7 +15089,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15202,7 +15197,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15312,7 +15307,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15420,7 +15415,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15482,7 +15477,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15500,7 +15495,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15521,12 +15516,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15552,14 +15547,14 @@
         <v>95</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
@@ -15608,7 +15603,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15617,7 +15612,7 @@
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15629,12 +15624,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15660,16 +15655,16 @@
         <v>101</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15718,7 +15713,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15739,12 +15734,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15770,10 +15765,10 @@
         <v>181</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -15824,7 +15819,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15839,7 +15834,7 @@
         <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
@@ -15850,7 +15845,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15876,10 +15871,10 @@
         <v>156</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15909,10 +15904,10 @@
         <v>160</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -15930,7 +15925,7 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -15945,7 +15940,7 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1038,9 +1038,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-measurement-vs</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -1087,6 +1084,9 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-measurement-vs</t>
+  </si>
+  <si>
     <t>Quantity.code</t>
   </si>
   <si>
@@ -1123,16 +1123,16 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
+  </si>
+  <si>
+    <t>Unit of measurement or unit of presentation</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.code</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
-  </si>
-  <si>
-    <t>Unit of measurement or unit of presentation</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.strength.presentation[x].denominator.code</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.textPresentation</t>
@@ -7733,29 +7733,31 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7776,12 +7778,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7807,14 +7809,14 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7824,55 +7826,55 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7884,12 +7886,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7915,16 +7917,16 @@
         <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7949,13 +7951,11 @@
         <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>73</v>
@@ -8595,11 +8595,13 @@
         <v>73</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8617,7 +8619,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8638,12 +8640,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8669,14 +8671,14 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8725,16 +8727,16 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8746,12 +8748,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8777,16 +8779,16 @@
         <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8811,13 +8813,11 @@
         <v>73</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>73</v>
@@ -9989,29 +9989,31 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10032,7 +10034,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78">
@@ -10063,14 +10065,14 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10080,55 +10082,55 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE78" t="s" s="2">
+      <c r="AF78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10140,7 +10142,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79">
@@ -10171,16 +10173,16 @@
         <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10205,13 +10207,11 @@
         <v>73</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>73</v>
@@ -10851,29 +10851,31 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10894,7 +10896,7 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86">
@@ -10925,14 +10927,14 @@
         <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10942,55 +10944,55 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE86" t="s" s="2">
+      <c r="AF86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11002,7 +11004,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87">
@@ -11033,16 +11035,16 @@
         <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11067,13 +11069,11 @@
         <v>73</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X87" s="2"/>
       <c r="Y87" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>73</v>
@@ -14611,29 +14611,31 @@
         <v>73</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X120" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE120" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14654,7 +14656,7 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121">
@@ -14685,14 +14687,14 @@
         <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
@@ -14702,55 +14704,55 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE121" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE121" t="s" s="2">
+      <c r="AF121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH121" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14762,7 +14764,7 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122">
@@ -14793,16 +14795,16 @@
         <v>101</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14827,13 +14829,11 @@
         <v>73</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>73</v>
@@ -15473,11 +15473,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X128" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y128" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15495,7 +15497,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15516,7 +15518,7 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129">
@@ -15547,14 +15549,14 @@
         <v>95</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
@@ -15603,16 +15605,16 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH129" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15624,7 +15626,7 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130">
@@ -15655,16 +15657,16 @@
         <v>101</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15689,13 +15691,11 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X130" s="2"/>
       <c r="Y130" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -511,7 +511,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://spor.ema.europa.eu/v1/lists/100000072050"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/v1/lists/100000072050"/&gt;
     &lt;code value="100000072072"/&gt;
     &lt;display value="Active"/&gt;
   &lt;/coding&gt;
@@ -1056,7 +1056,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000110633</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000110633</t>
   </si>
   <si>
     <t>Quantity.system</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1258,10 +1258,10 @@
     <t>Ingredient.substance.strength.referenceStrength</t>
   </si>
   <si>
-    <t>Strenth expressed in terms of a reference substance; concentration and presentation strength or reference strength type not distinguished.</t>
-  </si>
-  <si>
-    <t>EMA IG 5.5.3</t>
+    <t>Strenth expressed in terms of a reference substance; reference strength type not distinguished. According to EMA IG, all products need to have reference strentgh (repeating the strentgh, if needed)</t>
+  </si>
+  <si>
+    <t>EMA IG 5.5.3. According to EMA, this is a mandatory element for all products, which is not necessarily accepted by all NCAs, and it is ambivalent in ISO IDMP.</t>
   </si>
   <si>
     <t>Strength.Reference Strength</t>
@@ -1727,7 +1727,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="183.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
